--- a/update_db/current-items.xlsx
+++ b/update_db/current-items.xlsx
@@ -15,9 +15,9 @@
     <sheet name="аким, елиз, анаст" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'аким, елиз, анаст'!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'аким, елиз, анаст'!$A$1:$X$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -11943,9 +11943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A510" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W2" sqref="W2:W591"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46071,7 +46071,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q1"/>
+  <autoFilter ref="A1:X1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
